--- a/Leyes/CONGRESO.xlsx
+++ b/Leyes/CONGRESO.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Congresistas" sheetId="2" r:id="rId2"/>
+    <sheet name="Guía" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="563">
   <si>
     <t>Ley</t>
   </si>
@@ -2564,13 +2566,373 @@
   </si>
   <si>
     <t>ACB_ "recursos del estado".</t>
+  </si>
+  <si>
+    <t>Proyecto de Ley</t>
+  </si>
+  <si>
+    <t>Costo Beneficio</t>
+  </si>
+  <si>
+    <t>"No Supondrá gasto"</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Roel Alva</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Costo Beneficio deficiente</t>
+  </si>
+  <si>
+    <t>Hace algún esfuerzo</t>
+  </si>
+  <si>
+    <t>04351/2018-CR</t>
+  </si>
+  <si>
+    <t>4851/2020-CR</t>
+  </si>
+  <si>
+    <t>Del Castillo Gálvez, Jorge Alfonso Alejandro</t>
+  </si>
+  <si>
+    <t>Espinoza Cruz, Marisol</t>
+  </si>
+  <si>
+    <t>04027/2018-CR</t>
+  </si>
+  <si>
+    <t>García Jiménez, Maritza Matilde</t>
+  </si>
+  <si>
+    <t>03860/2018-CR</t>
+  </si>
+  <si>
+    <t>02620/2017-CR</t>
+  </si>
+  <si>
+    <t>Narváez Soto, Eloy Ricardo</t>
+  </si>
+  <si>
+    <t>04895/2020-PE</t>
+  </si>
+  <si>
+    <t>Poder Ejecutivo</t>
+  </si>
+  <si>
+    <t>"Pliegos presupuestarios"</t>
+  </si>
+  <si>
+    <t>"Inciativa de Puro Derecho"</t>
+  </si>
+  <si>
+    <t>Costo beneficio deficiente</t>
+  </si>
+  <si>
+    <t>"No demanda recursos al erario nacional"</t>
+  </si>
+  <si>
+    <t>"No irroga gastos al Estado público"</t>
+  </si>
+  <si>
+    <t>Montenegro Figueroa, Gloria Edelmira</t>
+  </si>
+  <si>
+    <t>03846/2018-CR</t>
+  </si>
+  <si>
+    <t>"La presente iniciativa legal no tiene costo alguno"</t>
+  </si>
+  <si>
+    <t>Costo beneficio deficiente: Señala brevemente que su ley no genera costos, sin identificar ningun efecto directo o indirecto u otro aspecto que le hagan merecedor de calificarse como "algún esfuerzo"</t>
+  </si>
+  <si>
+    <t>Hace algún esfuerzo: El proyecto trata de identificar efectos directos o indirectos de la medida, describe el mercado o sector al q se aplicará o hace un análisis considerando las partidas presupuestales correspondientes. Sin embargo, en ningún caso trata detallar dichos actores involucrados en la medida así como, de ser posible, cuantificar efectivamente los costos de la medida y en general la guía de análisis costo beneficio del Congreso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo beneficio exitoso: Sigue los parámetros del la Guía de orientación
+Nº 06-2005- DCD-DGP/CR e incluso incluye herramientas econométricas en caso de ser viable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01711/2016-CR </t>
+  </si>
+  <si>
+    <t>Letona Pereyra, María Úrsula Ingrid</t>
+  </si>
+  <si>
+    <t>"Indentifica grupos involucrados"</t>
+  </si>
+  <si>
+    <t>Fecha de presentación del proyecto</t>
+  </si>
+  <si>
+    <t>"Identifica actores y beneficios directos e indirectos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03019/2017-CR </t>
+  </si>
+  <si>
+    <t>Trujillo Zegarra, Gilmer</t>
+  </si>
+  <si>
+    <t>"Identifica algunos actores involucrados"</t>
+  </si>
+  <si>
+    <t>04936/2020-CR </t>
+  </si>
+  <si>
+    <t>Combina Salvatierra, Cesar Augusto</t>
+  </si>
+  <si>
+    <t>"No irroga egreso alguno al erario nacional"</t>
+  </si>
+  <si>
+    <t>04947/2020-PE</t>
+  </si>
+  <si>
+    <t>"No irrogará gasto al estado peruano"</t>
+  </si>
+  <si>
+    <t>04949/2020-CR</t>
+  </si>
+  <si>
+    <t>Columbus Murata, Diethell</t>
+  </si>
+  <si>
+    <t>"Hay impacto directo en el ahorro del gasto público"</t>
+  </si>
+  <si>
+    <t>04964/2020-CR</t>
+  </si>
+  <si>
+    <t>Paredes Eyzaguirre, Rosario</t>
+  </si>
+  <si>
+    <t>"No irroga mayor presupuesto al gobierno nacional"</t>
+  </si>
+  <si>
+    <t>Alarcón Tejada, Edgar Arnold</t>
+  </si>
+  <si>
+    <t>04966/2020-CR</t>
+  </si>
+  <si>
+    <t>"No ocasiona ninguna afectación al presupuesto nacional"</t>
+  </si>
+  <si>
+    <t>Omonte Durand De Dyer, Maria Del Carmen</t>
+  </si>
+  <si>
+    <t>04868/2020-CR</t>
+  </si>
+  <si>
+    <t>"No ocacionará ningún gasto al Tesoro Público"</t>
+  </si>
+  <si>
+    <t>Pichilingue Gomez, Marcos Antonio</t>
+  </si>
+  <si>
+    <t>04869/2020-CR</t>
+  </si>
+  <si>
+    <t>"Los costos son imposibles de medir en lo inmediato"</t>
+  </si>
+  <si>
+    <t>Oyola Rodríguez, Juan Carlos</t>
+  </si>
+  <si>
+    <t>04891/2020-CR</t>
+  </si>
+  <si>
+    <t>"No genera ningún gasto para el tesoro público"</t>
+  </si>
+  <si>
+    <t>Simeón Hurtado, Luis Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04883/2020-CR </t>
+  </si>
+  <si>
+    <t>"No genera ni implica ningún costo adicional para el erario nacional"</t>
+  </si>
+  <si>
+    <t>04893/2020-CR</t>
+  </si>
+  <si>
+    <t>Inga Sales, Leonardo</t>
+  </si>
+  <si>
+    <t>"No irrogorá gasto alguno al erario nacional"</t>
+  </si>
+  <si>
+    <t>04915/2020-CR</t>
+  </si>
+  <si>
+    <t>Apaza Quispe, Yessica Marisela</t>
+  </si>
+  <si>
+    <t>"No generará costo al erario nacional"</t>
+  </si>
+  <si>
+    <t>04935/2020-CR</t>
+  </si>
+  <si>
+    <t>Aliaga Pajares, Guillermo Alejandro Antonio</t>
+  </si>
+  <si>
+    <t>"No generará gastos al erario público"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04937/2020-CR </t>
+  </si>
+  <si>
+    <t>Luna Morales, José Luis</t>
+  </si>
+  <si>
+    <t>"No generará costo alguno al erario nacional"</t>
+  </si>
+  <si>
+    <t>04948/2020-CR</t>
+  </si>
+  <si>
+    <t>Checco Chauca, Lenin Abraham</t>
+  </si>
+  <si>
+    <t>"La norma propuesta no afecta al erario nacional"</t>
+  </si>
+  <si>
+    <t>04968/2020-CR</t>
+  </si>
+  <si>
+    <t>Dioses Guzmán, Luis Reymundo</t>
+  </si>
+  <si>
+    <t>"No genera un costo presupuestal al Estado"</t>
+  </si>
+  <si>
+    <t>04982/2020-CR</t>
+  </si>
+  <si>
+    <t>Céspedes Cárdenas, María Teresa</t>
+  </si>
+  <si>
+    <t>"No irroga gastos al Estado"</t>
+  </si>
+  <si>
+    <t>04951/2020-CR</t>
+  </si>
+  <si>
+    <t>Bajonero Olivas, Wilmer Solis</t>
+  </si>
+  <si>
+    <t>"No representa ningún costo al Estado"</t>
+  </si>
+  <si>
+    <t>Espinoza Rosales, Rennan Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+04985/2020-CR</t>
+  </si>
+  <si>
+    <t>"Beneficios para atender la emergencia sanitaria"</t>
+  </si>
+  <si>
+    <t>"No genera costos al tesoro público"</t>
+  </si>
+  <si>
+    <t>05326/2020-PE</t>
+  </si>
+  <si>
+    <t>05228/2020-CR</t>
+  </si>
+  <si>
+    <t>García Rodríguez, Jaqueline Cecilia</t>
+  </si>
+  <si>
+    <t>"No irroga ningún gasto al Estado"</t>
+  </si>
+  <si>
+    <t>05233/2020-CR</t>
+  </si>
+  <si>
+    <t>Valdez Farías, Luis Alberto</t>
+  </si>
+  <si>
+    <t>"No representa costo alguno para el gobierno"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05253/2020-CR </t>
+  </si>
+  <si>
+    <t>"No irroga gastos al estado"</t>
+  </si>
+  <si>
+    <t>05274/2020-CR</t>
+  </si>
+  <si>
+    <t>Salinas López, Franco</t>
+  </si>
+  <si>
+    <t>"No irroga gasto alguno al erario nacional"</t>
+  </si>
+  <si>
+    <t>05023/2020-CR</t>
+  </si>
+  <si>
+    <t>Cabrera Vega, María Teresa</t>
+  </si>
+  <si>
+    <t>05025/2020-CR</t>
+  </si>
+  <si>
+    <t>Gallardo Becerra, María Martina</t>
+  </si>
+  <si>
+    <t>05028/2020-CR</t>
+  </si>
+  <si>
+    <t>Rayme Marín, Alcides</t>
+  </si>
+  <si>
+    <t>"No generará recursos adicionales al Tesoro Público"</t>
+  </si>
+  <si>
+    <t>Alcalá Mateo, Percy Eloy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03298/2018-CR </t>
+  </si>
+  <si>
+    <t>Chaiña Contreras, Hipólito</t>
+  </si>
+  <si>
+    <t>05098/2020-CR</t>
+  </si>
+  <si>
+    <t>"Identifica actores y algunos costos generales"</t>
+  </si>
+  <si>
+    <t>05429/2020-CR</t>
+  </si>
+  <si>
+    <t>Oseda Yucra, Daniel</t>
+  </si>
+  <si>
+    <t>05439/2020-CR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2623,6 +2985,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2662,10 +3056,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2719,8 +3114,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3035,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E445"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8259,26 +8674,24 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="B277:B287"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="B389:B394"/>
-    <mergeCell ref="B377:B386"/>
-    <mergeCell ref="B356:B363"/>
-    <mergeCell ref="B329:B330"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B427:B445"/>
-    <mergeCell ref="B415:B426"/>
-    <mergeCell ref="B412:B414"/>
-    <mergeCell ref="B406:B410"/>
-    <mergeCell ref="B396:B404"/>
-    <mergeCell ref="A366:A445"/>
-    <mergeCell ref="A294:A309"/>
-    <mergeCell ref="A310:A340"/>
-    <mergeCell ref="A341:A365"/>
-    <mergeCell ref="A270:A293"/>
+    <mergeCell ref="B200:B208"/>
+    <mergeCell ref="A214:A248"/>
+    <mergeCell ref="B243:B248"/>
+    <mergeCell ref="A249:A269"/>
+    <mergeCell ref="A185:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B256:B260"/>
+    <mergeCell ref="B250:B255"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B189:B193"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B160:B182"/>
     <mergeCell ref="A21:A135"/>
     <mergeCell ref="B137:B138"/>
     <mergeCell ref="B54:B56"/>
@@ -8295,27 +8708,891 @@
     <mergeCell ref="B71:B74"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B189:B193"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B160:B182"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="A214:A248"/>
-    <mergeCell ref="B243:B248"/>
-    <mergeCell ref="A249:A269"/>
-    <mergeCell ref="A185:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="B256:B260"/>
-    <mergeCell ref="B250:B255"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="A366:A445"/>
+    <mergeCell ref="A294:A309"/>
+    <mergeCell ref="A310:A340"/>
+    <mergeCell ref="A341:A365"/>
+    <mergeCell ref="A270:A293"/>
+    <mergeCell ref="B427:B445"/>
+    <mergeCell ref="B415:B426"/>
+    <mergeCell ref="B412:B414"/>
+    <mergeCell ref="B406:B410"/>
+    <mergeCell ref="B396:B404"/>
+    <mergeCell ref="B389:B394"/>
+    <mergeCell ref="B377:B386"/>
+    <mergeCell ref="B356:B363"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="B277:B287"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B263:B265"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="61" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31010</v>
+      </c>
+      <c r="B4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="20">
+        <v>43906</v>
+      </c>
+      <c r="E4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="20">
+        <v>43916</v>
+      </c>
+      <c r="E5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="20">
+        <v>43494</v>
+      </c>
+      <c r="E6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="20">
+        <v>43495</v>
+      </c>
+      <c r="E7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>31012</v>
+      </c>
+      <c r="B8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="20">
+        <v>43535</v>
+      </c>
+      <c r="E8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="20">
+        <v>43602</v>
+      </c>
+      <c r="E9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>31013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="20">
+        <v>42942</v>
+      </c>
+      <c r="E10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>31014</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="20">
+        <v>43182</v>
+      </c>
+      <c r="E11" t="s">
+        <v>478</v>
+      </c>
+      <c r="F11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>31015</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" s="20">
+        <v>43264</v>
+      </c>
+      <c r="E12" t="s">
+        <v>481</v>
+      </c>
+      <c r="F12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31016</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D13" s="20">
+        <v>43916</v>
+      </c>
+      <c r="E13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>31016</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" s="20">
+        <v>43917</v>
+      </c>
+      <c r="E14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>31016</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="D15" s="20">
+        <v>43920</v>
+      </c>
+      <c r="E15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31016</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" s="20">
+        <v>43921</v>
+      </c>
+      <c r="E16" t="s">
+        <v>492</v>
+      </c>
+      <c r="F16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>31016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>493</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" s="19">
+        <v>43921</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>31017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" s="20">
+        <v>43914</v>
+      </c>
+      <c r="E18" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>31017</v>
+      </c>
+      <c r="B19" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D19" s="20">
+        <v>43914</v>
+      </c>
+      <c r="E19" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>31017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>502</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D20" s="20">
+        <v>43914</v>
+      </c>
+      <c r="E20" t="s">
+        <v>504</v>
+      </c>
+      <c r="F20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>31017</v>
+      </c>
+      <c r="B21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D21" s="19">
+        <v>43914</v>
+      </c>
+      <c r="E21" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>31017</v>
+      </c>
+      <c r="B22" t="s">
+        <v>509</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="D22" s="19">
+        <v>43914</v>
+      </c>
+      <c r="E22" t="s">
+        <v>510</v>
+      </c>
+      <c r="F22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>31017</v>
+      </c>
+      <c r="B23" t="s">
+        <v>512</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" s="19">
+        <v>43916</v>
+      </c>
+      <c r="E23" t="s">
+        <v>513</v>
+      </c>
+      <c r="F23" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>31017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="D24" s="19">
+        <v>43916</v>
+      </c>
+      <c r="E24" t="s">
+        <v>516</v>
+      </c>
+      <c r="F24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>31017</v>
+      </c>
+      <c r="B25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="D25" s="19">
+        <v>43916</v>
+      </c>
+      <c r="E25" t="s">
+        <v>519</v>
+      </c>
+      <c r="F25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>31017</v>
+      </c>
+      <c r="B26" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="D26" s="19">
+        <v>43920</v>
+      </c>
+      <c r="E26" t="s">
+        <v>522</v>
+      </c>
+      <c r="F26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>31017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="D27" s="19">
+        <v>43921</v>
+      </c>
+      <c r="E27" t="s">
+        <v>525</v>
+      </c>
+      <c r="F27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>31017</v>
+      </c>
+      <c r="B28" t="s">
+        <v>527</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28" s="19">
+        <v>43922</v>
+      </c>
+      <c r="E28" t="s">
+        <v>528</v>
+      </c>
+      <c r="F28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
+        <v>31018</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>530</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="D29" s="28">
+        <v>43920</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>31018</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D30" s="28">
+        <v>43922</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31020</v>
+      </c>
+      <c r="B31" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="D31" s="19">
+        <v>43973</v>
+      </c>
+      <c r="E31" t="s">
+        <v>535</v>
+      </c>
+      <c r="F31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31022</v>
+      </c>
+      <c r="B32" t="s">
+        <v>538</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="D32" s="19">
+        <v>43967</v>
+      </c>
+      <c r="E32" t="s">
+        <v>539</v>
+      </c>
+      <c r="F32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31022</v>
+      </c>
+      <c r="B33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="D33" s="19">
+        <v>43967</v>
+      </c>
+      <c r="E33" t="s">
+        <v>542</v>
+      </c>
+      <c r="F33" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31022</v>
+      </c>
+      <c r="B34" t="s">
+        <v>527</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="D34" s="19">
+        <v>43969</v>
+      </c>
+      <c r="E34" t="s">
+        <v>544</v>
+      </c>
+      <c r="F34" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31022</v>
+      </c>
+      <c r="B35" t="s">
+        <v>546</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D35" s="19">
+        <v>43970</v>
+      </c>
+      <c r="E35" t="s">
+        <v>547</v>
+      </c>
+      <c r="F35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>31021</v>
+      </c>
+      <c r="B36" t="s">
+        <v>549</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="D36" s="19">
+        <v>43937</v>
+      </c>
+      <c r="E36" t="s">
+        <v>481</v>
+      </c>
+      <c r="F36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="D37" s="19">
+        <v>43937</v>
+      </c>
+      <c r="E37" t="s">
+        <v>481</v>
+      </c>
+      <c r="F37" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31021</v>
+      </c>
+      <c r="B38" t="s">
+        <v>553</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="D38" s="19">
+        <v>43937</v>
+      </c>
+      <c r="E38" t="s">
+        <v>554</v>
+      </c>
+      <c r="F38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31024</v>
+      </c>
+      <c r="B39" t="s">
+        <v>555</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D39" s="19">
+        <v>43348</v>
+      </c>
+      <c r="E39" t="s">
+        <v>481</v>
+      </c>
+      <c r="F39" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31025</v>
+      </c>
+      <c r="B40" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="D40" s="19">
+        <v>43950</v>
+      </c>
+      <c r="E40" t="s">
+        <v>559</v>
+      </c>
+      <c r="F40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>31026</v>
+      </c>
+      <c r="B41" t="s">
+        <v>561</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="D41" s="19">
+        <v>43985</v>
+      </c>
+      <c r="E41" t="s">
+        <v>481</v>
+      </c>
+      <c r="F41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>31026</v>
+      </c>
+      <c r="B42" t="s">
+        <v>541</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="D42" s="19">
+        <v>43986</v>
+      </c>
+      <c r="E42" t="s">
+        <v>481</v>
+      </c>
+      <c r="F42" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" tooltip="ver todos sus proyectos" display="http://proyectosdeley.pe/congresista/trujillo_zegarra_gilmer/"/>
+    <hyperlink ref="B13" r:id="rId2" tooltip="ver todos sus proyectos" display="http://proyectosdeley.pe/congresista/combina_salvatierra_cesar/"/>
+    <hyperlink ref="B15" r:id="rId3" tooltip="ver todos sus proyectos" display="http://proyectosdeley.pe/congresista/columbus_murata_diethell/"/>
+    <hyperlink ref="B16" r:id="rId4" tooltip="ver todos sus proyectos" display="http://proyectosdeley.pe/congresista/paredes_eyzaguirre_rosario/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="B4" s="22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>